--- a/空白人物卡.xlsx
+++ b/空白人物卡.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XXX\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitStuff\Tao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7921EA-7C19-47AE-9D9D-73C4DC07515E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD5A9DA-D9EE-478B-ADC2-8A7BAE974923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洞察</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>恐吓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,14 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔法?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵力？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>熟练</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,6 +368,26 @@
   </si>
   <si>
     <t>道具重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侦察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>察言观色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通感</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,9 +437,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -440,33 +464,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -760,34 +763,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
       <c r="E1" t="s">
         <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="10">
         <v>0.5</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="2"/>
       <c r="E2">
         <v>25</v>
       </c>
@@ -796,125 +799,124 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="2"/>
       <c r="E3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="2"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
@@ -937,7 +939,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F16">
@@ -950,20 +952,20 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F21" si="0">B17+C17+D17+E17</f>
+        <f t="shared" ref="F17:F20" si="0">B17+C17+D17+E17</f>
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G21" si="1">ROUND((F17-10)/2,0)</f>
+        <f t="shared" ref="G17:G22" si="1">ROUND((F17-10)/2,0)</f>
         <v>-5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F18">
@@ -976,7 +978,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F19">
@@ -989,7 +991,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F20">
@@ -997,16 +999,16 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f>ROUND((F20-10)/2,0)</f>
         <v>-5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f>B21+C21+D21+E21</f>
         <v>0</v>
       </c>
       <c r="G21">
@@ -1015,184 +1017,182 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="A22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22">
+        <f>B22+C22+D22+E22</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>37</v>
       </c>
-      <c r="D23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <f>G17+2*C24</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>G17+2*C25</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <f>G20+2*C25</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>G20+2*C26</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f>G20+2*C27</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f>G16+2*C28</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>G21+2*C29</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <f>G19+2*C26</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <f>G16+2*C27</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f>G19+2*C30</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f>G22+2*C31</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
         <v>21</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <f>G21+2*C28</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f>G21+2*C32</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
         <v>19</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <f>G19+2*C29</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <f>G20+2*C30</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <f>G21+2*C31</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f>G19+2*C33</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <f>G19+2*C32</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <f>G20+2*C33</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -1201,50 +1201,50 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <f>G19+2*C34</f>
+        <f>G20+2*C34</f>
         <v>-5</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f>G19+2*C35</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f>G22+2*C36</f>
+        <v>-5</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <f>G20+2*C35</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <f>G21+2*C36</f>
-        <v>-5</v>
-      </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
@@ -1256,61 +1256,55 @@
         <f>G21+2*C37</f>
         <v>-5</v>
       </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>G21+2*C38</f>
+        <v>-5</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f>G19+2*C39</f>
+        <v>-5</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <f>G19+2*C38</f>
-        <v>-5</v>
-      </c>
-      <c r="J38" s="12"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <f>G17+2*C39</f>
-        <v>-5</v>
-      </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
@@ -1322,123 +1316,112 @@
         <f>G17+2*C40</f>
         <v>-5</v>
       </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
+      <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>55</v>
+      <c r="A41" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f>G17+2*C41</f>
+        <v>-5</v>
+      </c>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f>G22+2*C42</f>
+        <v>-5</v>
+      </c>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
         <v>20</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <f>G20+2*C41</f>
-        <v>-5</v>
-      </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f>G20+2*C43</f>
+        <v>-5</v>
+      </c>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J43" s="4"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -1447,99 +1430,99 @@
       <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="9"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="9"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -1548,177 +1531,181 @@
       <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" t="s">
-        <v>65</v>
-      </c>
-      <c r="E63" t="s">
-        <v>66</v>
-      </c>
+      <c r="A63" s="9"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
         <v>70</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" t="s">
         <v>71</v>
       </c>
-      <c r="C67" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67" t="s">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="E67" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" t="s">
         <v>71</v>
       </c>
-      <c r="C70" t="s">
-        <v>73</v>
-      </c>
-      <c r="D70" t="s">
-        <v>72</v>
-      </c>
-      <c r="E70" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" t="s">
-        <v>77</v>
-      </c>
-      <c r="D73" t="s">
-        <v>78</v>
-      </c>
-      <c r="E73" t="s">
-        <v>80</v>
-      </c>
-      <c r="F73" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73" s="1" t="s">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" t="s">
+        <v>77</v>
+      </c>
+      <c r="F75" t="s">
+        <v>78</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A71:G71"/>
-    <mergeCell ref="A77:G77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="B46:G50"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B53:G55"/>
-    <mergeCell ref="B56:G58"/>
-    <mergeCell ref="B59:G61"/>
-    <mergeCell ref="A62:G62"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A55:A57"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="B9:G13"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B48:G52"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B55:G57"/>
+    <mergeCell ref="B58:G60"/>
+    <mergeCell ref="B61:G63"/>
+    <mergeCell ref="A64:G64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1:J1">
-    <cfRule type="dataBar" priority="3">
-      <dataBar showValue="0">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AD70FDE7-293F-44E3-AB00-5640E265B41D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G4">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -1745,21 +1732,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G1:J1">
+    <cfRule type="dataBar" priority="3">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AD70FDE7-293F-44E3-AB00-5640E265B41D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AD70FDE7-293F-44E3-AB00-5640E265B41D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G1:J1</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{770F047F-299F-4F85-B3D4-0761E8110803}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
@@ -1779,6 +1770,17 @@
           </x14:cfRule>
           <xm:sqref>G4</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AD70FDE7-293F-44E3-AB00-5640E265B41D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G1:J1</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/空白人物卡.xlsx
+++ b/空白人物卡.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitStuff\Tao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD5A9DA-D9EE-478B-ADC2-8A7BAE974923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AACD92-043A-45D2-B9F4-E8D3F0873491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,6 +388,10 @@
   </si>
   <si>
     <t>通感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>善恶值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,20 +459,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,7 +757,7 @@
   <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -775,12 +779,12 @@
       <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="7">
         <v>0.5</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -820,6 +824,9 @@
         <v>5</v>
       </c>
       <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -831,6 +838,9 @@
         <v>6</v>
       </c>
       <c r="D5" s="2"/>
+      <c r="E5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -907,13 +917,13 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1395,57 +1405,57 @@
       <c r="A48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1456,97 +1466,97 @@
       <c r="A55" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -1608,13 +1618,13 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -1661,38 +1671,30 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
       <c r="F80" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B9:G13"/>
     <mergeCell ref="A73:G73"/>
     <mergeCell ref="A79:G79"/>
     <mergeCell ref="B80:E80"/>
@@ -1704,6 +1706,14 @@
     <mergeCell ref="B58:G60"/>
     <mergeCell ref="B61:G63"/>
     <mergeCell ref="A64:G64"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B9:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G4">

--- a/空白人物卡.xlsx
+++ b/空白人物卡.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitStuff\Tao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AACD92-043A-45D2-B9F4-E8D3F0873491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74999934-C34E-4E39-8614-3203C2536AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -459,20 +459,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,7 +757,7 @@
   <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -779,12 +779,12 @@
       <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="10">
         <v>0.5</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -917,13 +917,13 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1085,7 +1085,7 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1405,57 +1405,57 @@
       <c r="A48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1466,97 +1466,97 @@
       <c r="A55" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -1618,13 +1618,13 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -1671,30 +1671,38 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
       <c r="F80" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B9:G13"/>
     <mergeCell ref="A73:G73"/>
     <mergeCell ref="A79:G79"/>
     <mergeCell ref="B80:E80"/>
@@ -1706,14 +1714,6 @@
     <mergeCell ref="B58:G60"/>
     <mergeCell ref="B61:G63"/>
     <mergeCell ref="A64:G64"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B9:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G4">

--- a/空白人物卡.xlsx
+++ b/空白人物卡.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitStuff\Tao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74999934-C34E-4E39-8614-3203C2536AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440313E1-7E8F-46D4-ACE4-B8A31AFAC6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命骰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,16 +379,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>感知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通感</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>和生命值挂钩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和灵力挂钩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前灵力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大灵力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>善恶值</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程距离</t>
   </si>
 </sst>
 </file>
@@ -463,7 +474,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,19 +765,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -780,13 +791,14 @@
         <v>32</v>
       </c>
       <c r="G1" s="10">
-        <v>0.5</v>
+        <f>(E2/F2)%</f>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -799,10 +811,11 @@
         <v>25</v>
       </c>
       <c r="F2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <f>F16*5</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -812,10 +825,20 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="10">
+        <f>(E4/F4)%</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -824,12 +847,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" t="s">
-        <v>91</v>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <f>F19*10</f>
+        <v>50</v>
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -838,11 +865,11 @@
         <v>6</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -851,8 +878,11 @@
         <v>7</v>
       </c>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -861,7 +891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -869,7 +899,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
@@ -880,7 +910,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -889,7 +919,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -898,7 +928,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -907,7 +937,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -916,7 +946,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -925,7 +955,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -948,244 +978,270 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
       <c r="F16">
         <f>B16+C16+D16+E16</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <f>ROUND((F16-10)/2,0)</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F16-5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
       <c r="F17">
-        <f t="shared" ref="F17:F20" si="0">B17+C17+D17+E17</f>
-        <v>0</v>
+        <f t="shared" ref="F17" si="0">B17+C17+D17+E17</f>
+        <v>6</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G22" si="1">ROUND((F17-10)/2,0)</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G17:G21" si="1">F17-5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="F18" si="2">B18+C18+D18+E18</f>
+        <v>6</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="F19" si="3">B19+C19+D19+E19</f>
+        <v>5</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>B20+C20+D20+E20</f>
+        <v>5</v>
       </c>
       <c r="G20">
-        <f>ROUND((F20-10)/2,0)</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
       <c r="F21">
         <f>B21+C21+D21+E21</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22">
-        <f>B22+C22+D22+E22</f>
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>G18+2*C24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="E25">
-        <f>G17+2*C25</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <f>G19+2*C25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>G21+2*C26</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <f>G20+2*C26</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="E27">
-        <f>G20+2*C27</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <f>G17+2*C27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="E28">
-        <f>G16+2*C28</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <f>G21+2*C28</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>G20+2*C29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="e">
+        <f>#REF!+2*C30</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <f>G21+2*C29</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <f>G19+2*C30</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="E31">
-        <f>G22+2*C31</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" t="e">
+        <f>#REF!+2*C31</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="E32">
-        <f>G21+2*C32</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <f>G20+2*C32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
@@ -1196,11 +1252,11 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <f>G19+2*C33</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <f>G21+2*C33</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
@@ -1212,37 +1268,51 @@
       </c>
       <c r="E34">
         <f>G20+2*C34</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
         <v>47</v>
       </c>
-      <c r="B35" t="s">
-        <v>19</v>
-      </c>
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="E35">
-        <f>G19+2*C35</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E35" t="e">
+        <f>#REF!+2*C35</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="E36">
-        <f>G22+2*C36</f>
-        <v>-5</v>
+      <c r="E36" t="e">
+        <f>#REF!+2*C36</f>
+        <v>#REF!</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="6"/>
@@ -1252,7 +1322,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>49</v>
       </c>
@@ -1262,57 +1332,45 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="E37">
-        <f>G21+2*C37</f>
-        <v>-5</v>
-      </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E37" t="e">
+        <f>#REF!+2*C37</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="E38">
-        <f>G21+2*C38</f>
-        <v>-5</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <f>G20+2*C38</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="E39">
-        <f>G19+2*C39</f>
-        <v>-5</v>
+        <f>G18+2*C39</f>
+        <v>1</v>
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
@@ -1323,401 +1381,372 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <f>G17+2*C40</f>
-        <v>-5</v>
+        <f>G18+2*C40</f>
+        <v>1</v>
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="E41">
-        <f>G17+2*C41</f>
-        <v>-5</v>
+      <c r="E41" t="e">
+        <f>#REF!+2*C41</f>
+        <v>#REF!</v>
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f>G21+2*C42</f>
+        <v>-1</v>
+      </c>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="8"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="8"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="8"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <f>G22+2*C42</f>
-        <v>-5</v>
-      </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <f>G20+2*C43</f>
-        <v>-5</v>
-      </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="8"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="8"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="8"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="8"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B64" t="s">
         <v>59</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C64" t="s">
         <v>60</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D64" t="s">
         <v>61</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E64" t="s">
         <v>62</v>
       </c>
-      <c r="E65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B68" t="s">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" t="s">
         <v>68</v>
       </c>
-      <c r="C69" t="s">
+      <c r="E68" t="s">
         <v>70</v>
       </c>
-      <c r="D69" t="s">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
         <v>69</v>
       </c>
-      <c r="E69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="D70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>72</v>
       </c>
-      <c r="B72" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" t="s">
-        <v>70</v>
-      </c>
-      <c r="D72" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="B74" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="C74" t="s">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D74" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" t="s">
+        <v>76</v>
+      </c>
+      <c r="F74" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>80</v>
       </c>
-      <c r="C75" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" t="s">
-        <v>75</v>
-      </c>
-      <c r="E75" t="s">
-        <v>77</v>
-      </c>
-      <c r="F75" t="s">
-        <v>78</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B76" t="s">
         <v>81</v>
       </c>
-      <c r="B77" t="s">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B79" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" t="s">
-        <v>85</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="7">
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A55:A57"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="B9:G13"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A79:G79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B48:G52"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B55:G57"/>
-    <mergeCell ref="B58:G60"/>
-    <mergeCell ref="B61:G63"/>
-    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G4">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1729,7 +1758,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1743,7 +1772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:J1">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="4">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1752,6 +1781,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{AD70FDE7-293F-44E3-AB00-5640E265B41D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:J3">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A563237D-D40E-4D9B-8EAD-9A6D9AB24AEC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1791,6 +1834,17 @@
           </x14:cfRule>
           <xm:sqref>G1:J1</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A563237D-D40E-4D9B-8EAD-9A6D9AB24AEC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G3:J3</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
